--- a/MigrateIMS/data/node_test/data/ATC_MAKET.xlsx
+++ b/MigrateIMS/data/node_test/data/ATC_MAKET.xlsx
@@ -149,10 +149,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -212,6 +212,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6873639</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
